--- a/repertuar.xlsx
+++ b/repertuar.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14360"/>
+    <workbookView windowWidth="26860" windowHeight="14360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,26 +27,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="298">
   <si>
     <t>Allmächtiger</t>
   </si>
   <si>
+    <t>Anbetung und Dank</t>
+  </si>
+  <si>
     <t>Am heil’gen Tag</t>
   </si>
   <si>
-    <t>4-214</t>
-  </si>
-  <si>
     <t>Danket dem Herrn</t>
   </si>
   <si>
     <t>Das ist ein köstlich Ding</t>
   </si>
   <si>
-    <t>4-205</t>
-  </si>
-  <si>
     <t>Das ist ein köstliches Ding</t>
   </si>
   <si>
@@ -56,51 +53,27 @@
     <t>Das Volk Gottes scharet</t>
   </si>
   <si>
-    <t>2-105</t>
-  </si>
-  <si>
-    <t>Der Herr hat großes</t>
-  </si>
-  <si>
-    <t>4-173</t>
+    <t>Der Herr hat großes an</t>
   </si>
   <si>
     <t>Dich will ich preisen</t>
   </si>
   <si>
-    <t>4-164</t>
-  </si>
-  <si>
     <t>Die Erd‘ ist des Herrn</t>
   </si>
   <si>
-    <t>4-186</t>
-  </si>
-  <si>
     <t>Die Himmel erzählen</t>
   </si>
   <si>
-    <t>4-165</t>
-  </si>
-  <si>
     <t>Dies ist der Tag</t>
   </si>
   <si>
-    <t>4-352</t>
-  </si>
-  <si>
     <t>Ehre dir, mein Retter</t>
   </si>
   <si>
-    <t>4-166</t>
-  </si>
-  <si>
     <t>Erhebet den Herrn!</t>
   </si>
   <si>
-    <t>0-71</t>
-  </si>
-  <si>
     <t>Frohlocket in dem Herrn</t>
   </si>
   <si>
@@ -110,51 +83,30 @@
     <t>Groß ist des Schöpfers</t>
   </si>
   <si>
-    <t>4-202</t>
-  </si>
-  <si>
     <t>Ich danke herzlich</t>
   </si>
   <si>
-    <t>4-201</t>
-  </si>
-  <si>
     <t>Ich will den Herrn Loben</t>
   </si>
   <si>
-    <t>4-174</t>
-  </si>
-  <si>
     <t>Ich weiß Gott wird mich</t>
   </si>
   <si>
     <t>Jauchzet dem Herrn</t>
   </si>
   <si>
-    <t>0-44</t>
-  </si>
-  <si>
     <t>Jauchzet Gott</t>
   </si>
   <si>
-    <t>4-172</t>
-  </si>
-  <si>
     <t>Lobe Gott</t>
   </si>
   <si>
     <t>Lobet den Herrn</t>
   </si>
   <si>
-    <t>0-39</t>
-  </si>
-  <si>
     <t>Lobet Jehova</t>
   </si>
   <si>
-    <t>0-6</t>
-  </si>
-  <si>
     <t>Lobsinget dem Herrn</t>
   </si>
   <si>
@@ -164,39 +116,21 @@
     <t>Mein Herr und Gott</t>
   </si>
   <si>
-    <t>2-147</t>
-  </si>
-  <si>
     <t>Mein Herz ist dir bereit</t>
   </si>
   <si>
-    <t>0-56</t>
-  </si>
-  <si>
     <t>O großer Gott</t>
   </si>
   <si>
-    <t>0-42</t>
-  </si>
-  <si>
     <t>Preiset den Herrn</t>
   </si>
   <si>
-    <t>2-155</t>
-  </si>
-  <si>
     <t>Preist Gott, den Vater</t>
   </si>
   <si>
-    <t>0-73</t>
-  </si>
-  <si>
     <t>Singet dem Herrn ein</t>
   </si>
   <si>
-    <t>0-43</t>
-  </si>
-  <si>
     <t>Singet froh dem Herrn</t>
   </si>
   <si>
@@ -206,25 +140,787 @@
     <t>Singt dem Allmächtigen</t>
   </si>
   <si>
-    <t>4-188</t>
-  </si>
-  <si>
     <t>Wie groß ist des</t>
   </si>
   <si>
-    <t>4-191</t>
-  </si>
-  <si>
     <t>Wir preisen, preisen</t>
   </si>
   <si>
     <t>Wunder der Gnade</t>
   </si>
   <si>
-    <t>4-313</t>
-  </si>
-  <si>
     <t>Wie lieblich</t>
+  </si>
+  <si>
+    <t>Du redest, Herr, zu mir zu mir</t>
+  </si>
+  <si>
+    <t>Bitte und Gebet</t>
+  </si>
+  <si>
+    <t>Durch dein Wort</t>
+  </si>
+  <si>
+    <t>Führe du, Herr</t>
+  </si>
+  <si>
+    <t>Gnädiger, Gott</t>
+  </si>
+  <si>
+    <t>Gott, man lobt dich</t>
+  </si>
+  <si>
+    <t>Herr, den ich tief im</t>
+  </si>
+  <si>
+    <t>Herr, zu dir will ich mich</t>
+  </si>
+  <si>
+    <t>Hör' mich Gott</t>
+  </si>
+  <si>
+    <t>Hör' uns, Allmächtiger</t>
+  </si>
+  <si>
+    <t>Hör uns, o Gott</t>
+  </si>
+  <si>
+    <t>Höre meinen Flehen</t>
+  </si>
+  <si>
+    <t>Ich suche dich</t>
+  </si>
+  <si>
+    <t>Lass hören mich</t>
+  </si>
+  <si>
+    <t>Meine Seele ist Stille</t>
+  </si>
+  <si>
+    <t>Neige dein Ohr, o Gott</t>
+  </si>
+  <si>
+    <t>O erhöre Herr</t>
+  </si>
+  <si>
+    <t>O Gott, mein Herr</t>
+  </si>
+  <si>
+    <t>O, heil'ger Geist</t>
+  </si>
+  <si>
+    <t>O Herr, erhör mein</t>
+  </si>
+  <si>
+    <t>Schenk' mir mehr Klarheit</t>
+  </si>
+  <si>
+    <t>Unser Vater</t>
+  </si>
+  <si>
+    <t>Vater unserer, Väter</t>
+  </si>
+  <si>
+    <t>Vater, erhör uns neig'</t>
+  </si>
+  <si>
+    <t>Vater, erhör' uns</t>
+  </si>
+  <si>
+    <t>Vater, erhöre mich</t>
+  </si>
+  <si>
+    <t>Verlass uns nicht</t>
+  </si>
+  <si>
+    <t>Willst du beten</t>
+  </si>
+  <si>
+    <t>Es ist noch Raum</t>
+  </si>
+  <si>
+    <t>Ruf zum Glauben und Umkehr</t>
+  </si>
+  <si>
+    <t>Höre, mein Freund</t>
+  </si>
+  <si>
+    <t>Ich klopfe an</t>
+  </si>
+  <si>
+    <t>Ich war einst verloren</t>
+  </si>
+  <si>
+    <t>In dem fremden Lande</t>
+  </si>
+  <si>
+    <t>Keinen Heiland</t>
+  </si>
+  <si>
+    <t>Komm zum Kreuz verirrte</t>
+  </si>
+  <si>
+    <t>Komm zum Kreuz, wo Jesus</t>
+  </si>
+  <si>
+    <t>Komm zum Kreuz nach</t>
+  </si>
+  <si>
+    <t>Lockend ruft der Heiland</t>
+  </si>
+  <si>
+    <t>O kommet und nehmet</t>
+  </si>
+  <si>
+    <t>O kommet, o kommet</t>
+  </si>
+  <si>
+    <t>O mein Freund komm</t>
+  </si>
+  <si>
+    <t>O Menschen, bekehrt euch</t>
+  </si>
+  <si>
+    <t>Sieh' ich steh' vor dir</t>
+  </si>
+  <si>
+    <t>Spiel nicht mit deiner S.</t>
+  </si>
+  <si>
+    <t>Wenn dir das Herz</t>
+  </si>
+  <si>
+    <t>Wenn uns die Leiden</t>
+  </si>
+  <si>
+    <t>Wer gleich Blutrot</t>
+  </si>
+  <si>
+    <t>Entfernt von Gott</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Du aller Worte </t>
+  </si>
+  <si>
+    <t>Unaufhörlich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heute ernte ich </t>
+  </si>
+  <si>
+    <t>Auf den Flügeln meines</t>
+  </si>
+  <si>
+    <t>Heiligung und Hingabe</t>
+  </si>
+  <si>
+    <t>Bis hierher hat der Herr</t>
+  </si>
+  <si>
+    <t>Der Herr ist mein Licht</t>
+  </si>
+  <si>
+    <t>Erschaffe mir, Gott</t>
+  </si>
+  <si>
+    <t>Gebt mir die Bibel</t>
+  </si>
+  <si>
+    <t>Gehst du durch wogende</t>
+  </si>
+  <si>
+    <t>Gott ist unsere Zuversicht</t>
+  </si>
+  <si>
+    <t>Gottes Volk darf nie</t>
+  </si>
+  <si>
+    <t>Herr, lass mich werden</t>
+  </si>
+  <si>
+    <t>Im Kreuz ist unsere Kraft</t>
+  </si>
+  <si>
+    <t>Immer vorwärts</t>
+  </si>
+  <si>
+    <t>Jesus Christus</t>
+  </si>
+  <si>
+    <t>Jesus, meiner Seele Licht</t>
+  </si>
+  <si>
+    <t>Lass ihn draußen</t>
+  </si>
+  <si>
+    <t>Mach mich reiner</t>
+  </si>
+  <si>
+    <t>Meister es toben Winde</t>
+  </si>
+  <si>
+    <t>Nicht um viel Ehr</t>
+  </si>
+  <si>
+    <t>Nun so bleibt es fest</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> O Gott, Du bist mein Gott</t>
+  </si>
+  <si>
+    <t>Schaff‘ in mir, Gott</t>
+  </si>
+  <si>
+    <t>Um mich vom Verderben</t>
+  </si>
+  <si>
+    <t>Und wenn ich redete mit</t>
+  </si>
+  <si>
+    <t>Was ist nur der Glaube</t>
+  </si>
+  <si>
+    <t>Der Dienst für den Heiland</t>
+  </si>
+  <si>
+    <t>Dienst und Mission</t>
+  </si>
+  <si>
+    <t>Einst ging ich in Sünden</t>
+  </si>
+  <si>
+    <t>Frohe Botschaft</t>
+  </si>
+  <si>
+    <t>Geh‘ in den Weinberg</t>
+  </si>
+  <si>
+    <t>Gott, du Vater</t>
+  </si>
+  <si>
+    <t>Gottes heil’ge Wahrheit</t>
+  </si>
+  <si>
+    <t>Ich bin glücklich</t>
+  </si>
+  <si>
+    <t>Lass mich Herr Jesu</t>
+  </si>
+  <si>
+    <t>Wachet auf, ihr jungen</t>
+  </si>
+  <si>
+    <t>Auf dem Sturmbewegten</t>
+  </si>
+  <si>
+    <t>Die ewige Heimat</t>
+  </si>
+  <si>
+    <t>Bringe du mich heim</t>
+  </si>
+  <si>
+    <t>Dort, wo der Heimat</t>
+  </si>
+  <si>
+    <t>Ein strahlt ewiges Licht</t>
+  </si>
+  <si>
+    <t>Es ist noch eine  Ruh'</t>
+  </si>
+  <si>
+    <t>Ewige Heimat, o Heimat</t>
+  </si>
+  <si>
+    <t>Freund, wir zieh'n</t>
+  </si>
+  <si>
+    <t>Herrlich winkt die Stadt</t>
+  </si>
+  <si>
+    <t>Ich sah einen neuen</t>
+  </si>
+  <si>
+    <t>Ich weiß' von einem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mein Heim ist nicht von </t>
+  </si>
+  <si>
+    <t>Ob mich brausende</t>
+  </si>
+  <si>
+    <t>Weit in der Fern'</t>
+  </si>
+  <si>
+    <t>Wenn nach der Erde</t>
+  </si>
+  <si>
+    <t>Wir sind ein Volk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zion, wach auf </t>
+  </si>
+  <si>
+    <t>Erwache Welt</t>
+  </si>
+  <si>
+    <t>Wiederkunft Jesu Christi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erwacht! </t>
+  </si>
+  <si>
+    <t>Es gibt eine Stadt</t>
+  </si>
+  <si>
+    <t>Jesus kommt wieder</t>
+  </si>
+  <si>
+    <t>Nicht schweigen!</t>
+  </si>
+  <si>
+    <t>Sieh, dein König kommt!</t>
+  </si>
+  <si>
+    <t>Siehe, ich komme bald</t>
+  </si>
+  <si>
+    <t>Wenn Jesus kommt</t>
+  </si>
+  <si>
+    <t>Wie lieblich sind</t>
+  </si>
+  <si>
+    <t>Der Bräutigam kommt</t>
+  </si>
+  <si>
+    <t>Auf Adlers Flügeln getragen</t>
+  </si>
+  <si>
+    <t>Trost und Ermunterung</t>
+  </si>
+  <si>
+    <t>Dein Wort ist</t>
+  </si>
+  <si>
+    <t>Der Herr ist mein Hirt'</t>
+  </si>
+  <si>
+    <t>Der Herr ist mein Hirte</t>
+  </si>
+  <si>
+    <t>Dunkel liegt vor mir</t>
+  </si>
+  <si>
+    <t>Gleich wie der Vater</t>
+  </si>
+  <si>
+    <t>Gott ist die Liebe</t>
+  </si>
+  <si>
+    <t>Gottes Hände</t>
+  </si>
+  <si>
+    <t>Hast du's nicht erfahren</t>
+  </si>
+  <si>
+    <t>Herr, bleib bei uns</t>
+  </si>
+  <si>
+    <t>Herr, mein Gott</t>
+  </si>
+  <si>
+    <t>Herr, wenn ich nur dich</t>
+  </si>
+  <si>
+    <t>In meinem Heilandes</t>
+  </si>
+  <si>
+    <t>O mein Gott, du weißt</t>
+  </si>
+  <si>
+    <t>Oft war mir das Leben</t>
+  </si>
+  <si>
+    <t>Oft' werd ich im Alltag</t>
+  </si>
+  <si>
+    <t>Sei froh mein Herz</t>
+  </si>
+  <si>
+    <t>Seid ihr müde schon</t>
+  </si>
+  <si>
+    <t>Selig sind die</t>
+  </si>
+  <si>
+    <t>Tiefen Friede so reich</t>
+  </si>
+  <si>
+    <t>Um ein Schifflein</t>
+  </si>
+  <si>
+    <t>Wenn des Lebensstürme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenn du in des Lebensstürme  </t>
+  </si>
+  <si>
+    <t>Wenn schwer dein Weg</t>
+  </si>
+  <si>
+    <t>Wer unter dem Schirm</t>
+  </si>
+  <si>
+    <t>Wie der Hirsch</t>
+  </si>
+  <si>
+    <t>Zu den Bergen</t>
+  </si>
+  <si>
+    <t>Eins tröstet uns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heute komme ich </t>
+  </si>
+  <si>
+    <t>Bethlehem schläft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geburt Jesu Christi </t>
+  </si>
+  <si>
+    <t>Bethlehem schlief</t>
+  </si>
+  <si>
+    <t>Ehre, Ehre</t>
+  </si>
+  <si>
+    <t>Ehre sei Gott in der Höhe</t>
+  </si>
+  <si>
+    <t>Engel künden</t>
+  </si>
+  <si>
+    <t>Es war in stiller Mitternacht</t>
+  </si>
+  <si>
+    <t>Fröhlich singt uns</t>
+  </si>
+  <si>
+    <t>Gerne hätte ich</t>
+  </si>
+  <si>
+    <t>Heilige Nacht</t>
+  </si>
+  <si>
+    <t>Herbei, o ihr Gläubigen</t>
+  </si>
+  <si>
+    <t>Horch vom Engelmunde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horch, welch himmlisch </t>
+  </si>
+  <si>
+    <t>Horch! Die Engelchöre singen</t>
+  </si>
+  <si>
+    <t>Horch, die Engelchöre</t>
+  </si>
+  <si>
+    <t>Horch, wie es die Nacht</t>
+  </si>
+  <si>
+    <t>Hört! Das frohe Lied!</t>
+  </si>
+  <si>
+    <t>Ich steh an deiner Krippe</t>
+  </si>
+  <si>
+    <t>Nacht über Bethlehem</t>
+  </si>
+  <si>
+    <t>Nun fallen weiße Flocken</t>
+  </si>
+  <si>
+    <t>O Bethlehem, du kleine</t>
+  </si>
+  <si>
+    <t>O welche Liebe</t>
+  </si>
+  <si>
+    <t>Seid fröhlich, alle Völker</t>
+  </si>
+  <si>
+    <t>Still ist die Nacht</t>
+  </si>
+  <si>
+    <t>Stille Nacht in Bethlehem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uns ist ein Kind geboren </t>
+  </si>
+  <si>
+    <t>Weiß liegen die Felder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bethlehem schläft </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ach, bis zum Tod </t>
+  </si>
+  <si>
+    <t>Leiden und Sterben Jesu Christi</t>
+  </si>
+  <si>
+    <t>Bitter weinte</t>
+  </si>
+  <si>
+    <t>Der schönste Platz</t>
+  </si>
+  <si>
+    <t>Durch manche Länder</t>
+  </si>
+  <si>
+    <t>Fließt, ihr Tränen</t>
+  </si>
+  <si>
+    <t>Fürwahr, er trug</t>
+  </si>
+  <si>
+    <t>Jesus, mein Heiland</t>
+  </si>
+  <si>
+    <t>Nacht voll Leid und</t>
+  </si>
+  <si>
+    <t>Nacht senkt sich nieder</t>
+  </si>
+  <si>
+    <t>Nächtliche Schatten</t>
+  </si>
+  <si>
+    <t>Nun hab' ich gefunden</t>
+  </si>
+  <si>
+    <t>O mein Gott, o mein</t>
+  </si>
+  <si>
+    <t>O stiller Ort</t>
+  </si>
+  <si>
+    <t>O Todesstund</t>
+  </si>
+  <si>
+    <t>Schau hin nach Golgatha</t>
+  </si>
+  <si>
+    <t>Unter dem Kreuz</t>
+  </si>
+  <si>
+    <t>Vorbei der Tag</t>
+  </si>
+  <si>
+    <t>Wer legt mit bangem</t>
+  </si>
+  <si>
+    <t>Wie viele Menschen</t>
+  </si>
+  <si>
+    <t>Jesus ging nach</t>
+  </si>
+  <si>
+    <t>Gethzename</t>
+  </si>
+  <si>
+    <t>Auferstanden</t>
+  </si>
+  <si>
+    <t>Christi Auferstehung</t>
+  </si>
+  <si>
+    <t>Christi ist auferstanden</t>
+  </si>
+  <si>
+    <t>Das ist unsre Botschaft</t>
+  </si>
+  <si>
+    <t>Der Heiland</t>
+  </si>
+  <si>
+    <t>Er erstand</t>
+  </si>
+  <si>
+    <t>Jesus lebt, er ist auferstanden</t>
+  </si>
+  <si>
+    <t>Singet fröhlich Jubellieder</t>
+  </si>
+  <si>
+    <t>Still lag im Morgengrau</t>
+  </si>
+  <si>
+    <t>Unser Herr ist erstanden</t>
+  </si>
+  <si>
+    <t>Was zagest du?</t>
+  </si>
+  <si>
+    <t>Wir singen dir erstand'ner</t>
+  </si>
+  <si>
+    <t>In stiller Gruft</t>
+  </si>
+  <si>
+    <t>Nächtlich dunkel</t>
+  </si>
+  <si>
+    <t>In finstrer Gruft</t>
+  </si>
+  <si>
+    <t>Habt ihr gehört</t>
+  </si>
+  <si>
+    <t>Geist des Herrn</t>
+  </si>
+  <si>
+    <t>Pfingsten</t>
+  </si>
+  <si>
+    <t>Heil'ger Geist, du Geist</t>
+  </si>
+  <si>
+    <t>Herr, lass deinen Geist</t>
+  </si>
+  <si>
+    <t>In Andacht und Anbetung</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lieber Herr, nimm ganz</t>
+  </si>
+  <si>
+    <t>Machet die Tore weit</t>
+  </si>
+  <si>
+    <t>O traget die Kunde</t>
+  </si>
+  <si>
+    <t>Unser Heiland</t>
+  </si>
+  <si>
+    <t>Welch ein wunderbarer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zion, freue dich! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als eine frohe </t>
+  </si>
+  <si>
+    <t>Erntedankfest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blick auf, blick auf </t>
+  </si>
+  <si>
+    <t>Bringt dem Herrn Preis</t>
+  </si>
+  <si>
+    <t>Das ist ein Köstlich</t>
+  </si>
+  <si>
+    <t>Die Ernte ist wieder</t>
+  </si>
+  <si>
+    <t>Die mit Tränen</t>
+  </si>
+  <si>
+    <t>Entfern von Gott</t>
+  </si>
+  <si>
+    <t>Fällt der Regen</t>
+  </si>
+  <si>
+    <t>Gott hat reiche Ernte</t>
+  </si>
+  <si>
+    <t>Gott gab uns den Frühling</t>
+  </si>
+  <si>
+    <t>Lass mich hören</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O wo sind die Schnitter </t>
+  </si>
+  <si>
+    <t>Reif sind Felder</t>
+  </si>
+  <si>
+    <t>Säe den Samen</t>
+  </si>
+  <si>
+    <t>Wir loben, o Gott</t>
+  </si>
+  <si>
+    <t>Wo ist die Frucht</t>
+  </si>
+  <si>
+    <t>Der Herr unser Gott</t>
+  </si>
+  <si>
+    <t>Hochzeitslieder</t>
+  </si>
+  <si>
+    <t>Erhebt euch, frohe Jubel</t>
+  </si>
+  <si>
+    <t>Es ist nicht gut allein</t>
+  </si>
+  <si>
+    <t>Es spricht der Herr</t>
+  </si>
+  <si>
+    <t>Gib Vater und deinen</t>
+  </si>
+  <si>
+    <t>Gott grüße dich</t>
+  </si>
+  <si>
+    <t>Gott segne euch</t>
+  </si>
+  <si>
+    <t>Grüß Gott euren teuren</t>
+  </si>
+  <si>
+    <t>Grüß Gott, grüß Gott</t>
+  </si>
+  <si>
+    <t>Her, zwei Hände</t>
+  </si>
+  <si>
+    <t>Herr, wir fliehen mit</t>
+  </si>
+  <si>
+    <t>Hochzeitstag, o Tag</t>
+  </si>
+  <si>
+    <t>Mit dem Herrn</t>
+  </si>
+  <si>
+    <t>Segen und Gnade</t>
+  </si>
+  <si>
+    <t>Reicht einander die Hände</t>
+  </si>
+  <si>
+    <t>Wir grüßen euch</t>
+  </si>
+  <si>
+    <t>Wo du hingehst</t>
+  </si>
+  <si>
+    <t>Wo Jesus bei den Seinen</t>
   </si>
 </sst>
 </file>
@@ -237,31 +933,13 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Microsoft YaHei UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -408,18 +1086,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE7E6E6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -608,64 +1280,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -786,177 +1406,142 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1246,7 +1831,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1263,8 +1848,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="781050"/>
-          <a:ext cx="533400" cy="1752600"/>
+          <a:off x="0" y="426720"/>
+          <a:ext cx="533400" cy="929640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1287,8 +1872,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1305,8 +1890,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="13510260"/>
-          <a:ext cx="533400" cy="1752600"/>
+          <a:off x="0" y="7680960"/>
+          <a:ext cx="533400" cy="1082040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1580,660 +2165,4435 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E43"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="30.46875" customWidth="1"/>
     <col min="2" max="2" width="8.328125" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.75" spans="1:5">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="1">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1">
         <v>33</v>
       </c>
-      <c r="C1" s="3">
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>214</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3">
+      <c r="B3" s="1">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>205</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>105</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>173</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>164</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>186</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>165</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <v>352</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1">
+        <v>166</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>71</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1">
+        <v>34</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>202</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1">
+        <v>201</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1">
+        <v>174</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1">
+        <v>52</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>44</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1">
+        <v>172</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1">
+        <v>20</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1">
+        <v>31</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>39</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>6</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>77</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2</v>
+      </c>
+      <c r="C29" s="1">
+        <v>147</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
+        <v>83</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>56</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>42</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1">
+        <v>155</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>73</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="2" ht="36.75" spans="1:5">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1">
+        <v>43</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1">
+        <v>53</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="1">
+        <v>3</v>
+      </c>
+      <c r="C38" s="1">
+        <v>7</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="1">
+        <v>4</v>
+      </c>
+      <c r="C39" s="1">
+        <v>188</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="1">
+        <v>4</v>
+      </c>
+      <c r="C40" s="1">
+        <v>191</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1">
+        <v>41</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="1">
+        <v>4</v>
+      </c>
+      <c r="C42" s="1">
+        <v>313</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="1">
+        <v>3</v>
+      </c>
+      <c r="C43" s="1">
+        <v>45</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0</v>
+      </c>
+      <c r="C44" s="1">
+        <v>8</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1">
+        <v>100</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1">
+        <v>3</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1">
         <v>2</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C47" s="1">
+        <v>109</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1">
+        <v>6</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1">
         <v>4</v>
       </c>
-      <c r="D2" s="3">
+      <c r="C49" s="1">
+        <v>213</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0</v>
+      </c>
+      <c r="C50" s="1">
+        <v>40</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1">
+        <v>5</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1">
+        <v>4</v>
+      </c>
+      <c r="C52" s="1">
+        <v>219</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1">
+        <v>3</v>
+      </c>
+      <c r="C53" s="1">
+        <v>45</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1">
+        <v>3</v>
+      </c>
+      <c r="C54" s="1">
+        <v>54</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0</v>
+      </c>
+      <c r="C55" s="1">
+        <v>48</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1">
+        <v>1</v>
+      </c>
+      <c r="C56" s="1">
+        <v>84</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1">
+        <v>4</v>
+      </c>
+      <c r="C57" s="1">
+        <v>311</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1">
+        <v>3</v>
+      </c>
+      <c r="C58" s="1">
+        <v>55</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1">
+        <v>1</v>
+      </c>
+      <c r="C59" s="1">
+        <v>37</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1">
+        <v>2</v>
+      </c>
+      <c r="C60" s="1">
+        <v>212</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1">
+        <v>51</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1">
+        <v>1</v>
+      </c>
+      <c r="C62" s="1">
+        <v>39</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1">
+        <v>4</v>
+      </c>
+      <c r="C63" s="1">
+        <v>227</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1">
+        <v>3</v>
+      </c>
+      <c r="C64" s="1">
+        <v>56</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1">
+        <v>0</v>
+      </c>
+      <c r="C65" s="1">
+        <v>22</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1">
+        <v>4</v>
+      </c>
+      <c r="C66" s="1">
+        <v>229</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1">
+        <v>1</v>
+      </c>
+      <c r="C67" s="1">
+        <v>14</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1">
+        <v>4</v>
+      </c>
+      <c r="C68" s="1">
+        <v>220</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1">
+        <v>0</v>
+      </c>
+      <c r="C69" s="1">
+        <v>19</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1">
+        <v>3</v>
+      </c>
+      <c r="C70" s="1">
+        <v>50</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1">
+        <v>0</v>
+      </c>
+      <c r="C71" s="1">
+        <v>8</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1">
+        <v>1</v>
+      </c>
+      <c r="C72" s="1">
+        <v>100</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1">
+        <v>1</v>
+      </c>
+      <c r="C73" s="1">
+        <v>3</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1">
+        <v>2</v>
+      </c>
+      <c r="C74" s="1">
+        <v>109</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1">
+        <v>1</v>
+      </c>
+      <c r="C75" s="1">
+        <v>6</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1">
+        <v>4</v>
+      </c>
+      <c r="C76" s="1">
+        <v>213</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1">
+        <v>0</v>
+      </c>
+      <c r="C77" s="1">
+        <v>40</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1">
+        <v>1</v>
+      </c>
+      <c r="C78" s="1">
+        <v>5</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1">
+        <v>4</v>
+      </c>
+      <c r="C79" s="1">
+        <v>219</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1">
+        <v>3</v>
+      </c>
+      <c r="C80" s="1">
+        <v>45</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1">
+        <v>3</v>
+      </c>
+      <c r="C81" s="1">
+        <v>54</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1">
+        <v>0</v>
+      </c>
+      <c r="C82" s="1">
+        <v>48</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1">
+        <v>1</v>
+      </c>
+      <c r="C83" s="1">
+        <v>84</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1">
+        <v>4</v>
+      </c>
+      <c r="C84" s="1">
+        <v>311</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1">
+        <v>3</v>
+      </c>
+      <c r="C85" s="1">
+        <v>55</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1">
+        <v>1</v>
+      </c>
+      <c r="C86" s="1">
+        <v>37</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1">
+        <v>2</v>
+      </c>
+      <c r="C87" s="1">
+        <v>212</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1">
+        <v>1</v>
+      </c>
+      <c r="C88" s="1">
+        <v>51</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E88" s="1"/>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1">
+        <v>1</v>
+      </c>
+      <c r="C89" s="1">
+        <v>39</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E89" s="1"/>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1">
+        <v>4</v>
+      </c>
+      <c r="C90" s="1">
+        <v>227</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E90" s="1"/>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1">
+        <v>3</v>
+      </c>
+      <c r="C91" s="1">
+        <v>56</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E91" s="1"/>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1">
+        <v>0</v>
+      </c>
+      <c r="C92" s="1">
+        <v>22</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E92" s="1"/>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1">
+        <v>4</v>
+      </c>
+      <c r="C93" s="1">
+        <v>229</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E93" s="1"/>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1">
+        <v>4</v>
+      </c>
+      <c r="C94" s="1">
+        <v>305</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E94" s="1"/>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95" s="1">
+        <v>4</v>
+      </c>
+      <c r="C95" s="1">
+        <v>217</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E95" s="1"/>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96" s="1">
+        <v>3</v>
+      </c>
+      <c r="C96" s="1">
+        <v>8</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E96" s="1"/>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97" s="1">
+        <v>4</v>
+      </c>
+      <c r="C97" s="1">
+        <v>126</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E97" s="1"/>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98" s="1">
+        <v>1</v>
+      </c>
+      <c r="C98" s="1">
+        <v>69</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E98" s="1"/>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99" s="1">
+        <v>3</v>
+      </c>
+      <c r="C99" s="1">
+        <v>75</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E99" s="1"/>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100" s="1">
+        <v>4</v>
+      </c>
+      <c r="C100" s="1">
+        <v>302</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E100" s="1"/>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101" s="1">
+        <v>4</v>
+      </c>
+      <c r="C101" s="1">
+        <v>337</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E101" s="1"/>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102" s="1">
+        <v>4</v>
+      </c>
+      <c r="C102" s="1">
+        <v>325</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E102" s="1"/>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B103" s="1">
+        <v>4</v>
+      </c>
+      <c r="C103" s="1">
+        <v>323</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E103" s="1"/>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B104" s="1">
+        <v>0</v>
+      </c>
+      <c r="C104" s="1">
+        <v>20</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E104" s="1"/>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B105" s="1">
+        <v>1</v>
+      </c>
+      <c r="C105" s="1">
+        <v>75</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E105" s="1"/>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" s="1">
+        <v>3</v>
+      </c>
+      <c r="C106" s="1">
+        <v>85</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E106" s="1"/>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107" s="1">
+        <v>3</v>
+      </c>
+      <c r="C107" s="1">
+        <v>157</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E107" s="1"/>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108" s="1">
+        <v>3</v>
+      </c>
+      <c r="C108" s="1">
+        <v>139</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E108" s="1"/>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B109" s="1">
+        <v>4</v>
+      </c>
+      <c r="C109" s="1">
+        <v>330</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E109" s="1"/>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B110" s="1">
+        <v>1</v>
+      </c>
+      <c r="C110" s="1">
+        <v>68</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E110" s="1"/>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B111" s="1">
+        <v>3</v>
+      </c>
+      <c r="C111" s="1">
+        <v>125</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E111" s="1"/>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112" s="1">
+        <v>4</v>
+      </c>
+      <c r="C112" s="1">
+        <v>353</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E112" s="1"/>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B113" s="1">
+        <v>0</v>
+      </c>
+      <c r="C113" s="1">
+        <v>12</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E113" s="1"/>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B114" s="1">
+        <v>1</v>
+      </c>
+      <c r="C114" s="1">
+        <v>74</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E114" s="1"/>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B115" s="1">
+        <v>0</v>
+      </c>
+      <c r="C115" s="1">
+        <v>47</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E115" s="1"/>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B116" s="1">
+        <v>1</v>
+      </c>
+      <c r="C116" s="1">
+        <v>25</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E116" s="1"/>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117" s="1">
+        <v>3</v>
+      </c>
+      <c r="C117" s="1">
+        <v>137</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E117" s="1"/>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" s="1">
+        <v>4</v>
+      </c>
+      <c r="C118" s="1">
+        <v>248</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E118" s="1"/>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119" s="1">
+        <v>4</v>
+      </c>
+      <c r="C119" s="1">
+        <v>279</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E119" s="1"/>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B120" s="1">
+        <v>5</v>
+      </c>
+      <c r="C120" s="1">
+        <v>504</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E120" s="1"/>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B121" s="1">
+        <v>1</v>
+      </c>
+      <c r="C121" s="1">
+        <v>46</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E121" s="1"/>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B122" s="1">
+        <v>4</v>
+      </c>
+      <c r="C122" s="1">
+        <v>322</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E122" s="1"/>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B123" s="1">
+        <v>4</v>
+      </c>
+      <c r="C123" s="1">
+        <v>318</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E123" s="1"/>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B124" s="1">
+        <v>3</v>
+      </c>
+      <c r="C124" s="1">
+        <v>109</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E124" s="1"/>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B125" s="1">
+        <v>4</v>
+      </c>
+      <c r="C125" s="1">
+        <v>320</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E125" s="1"/>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B126" s="1">
+        <v>4</v>
+      </c>
+      <c r="C126" s="1">
+        <v>251</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E126" s="1"/>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B127" s="1">
+        <v>0</v>
+      </c>
+      <c r="C127" s="1">
+        <v>17</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E127" s="1"/>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B128" s="1">
+        <v>4</v>
+      </c>
+      <c r="C128" s="1">
+        <v>264</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E128" s="1"/>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B129" s="1">
+        <v>4</v>
+      </c>
+      <c r="C129" s="1">
+        <v>253</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E129" s="1"/>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B130" s="1">
+        <v>0</v>
+      </c>
+      <c r="C130" s="1">
+        <v>41</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E130" s="1"/>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B131" s="1">
+        <v>0</v>
+      </c>
+      <c r="C131" s="1">
+        <v>7</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E131" s="1"/>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B132" s="1">
+        <v>0</v>
+      </c>
+      <c r="C132" s="1">
+        <v>25</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E132" s="1"/>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B133" s="1">
+        <v>3</v>
+      </c>
+      <c r="C133" s="1">
+        <v>96</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E133" s="1"/>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B134" s="1">
+        <v>3</v>
+      </c>
+      <c r="C134" s="1">
+        <v>65</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E134" s="1"/>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B135" s="1">
+        <v>3</v>
+      </c>
+      <c r="C135" s="1">
+        <v>99</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E135" s="1"/>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B136" s="1">
+        <v>0</v>
+      </c>
+      <c r="C136" s="1">
+        <v>76</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E136" s="1"/>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B137" s="1">
+        <v>4</v>
+      </c>
+      <c r="C137" s="1">
+        <v>261</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E137" s="1"/>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B138" s="1">
+        <v>3</v>
+      </c>
+      <c r="C138" s="1">
+        <v>86</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E138" s="1"/>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B139" s="1">
+        <v>0</v>
+      </c>
+      <c r="C139" s="1">
+        <v>3</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E139" s="1"/>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B140" s="1">
+        <v>4</v>
+      </c>
+      <c r="C140" s="1">
+        <v>262</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E140" s="1"/>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B141" s="1">
+        <v>4</v>
+      </c>
+      <c r="C141" s="1">
+        <v>254</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E141" s="1"/>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B142" s="1">
+        <v>4</v>
+      </c>
+      <c r="C142" s="1">
+        <v>348</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E142" s="1"/>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B143" s="1">
+        <v>3</v>
+      </c>
+      <c r="C143" s="1">
+        <v>61</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E143" s="1"/>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B144" s="1">
+        <v>3</v>
+      </c>
+      <c r="C144" s="1">
+        <v>59</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E144" s="1"/>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B145" s="1">
+        <v>3</v>
+      </c>
+      <c r="C145" s="1">
+        <v>161</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E145" s="1"/>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B146" s="1">
+        <v>1</v>
+      </c>
+      <c r="C146" s="1">
+        <v>4</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E146" s="1"/>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B147" s="1">
+        <v>4</v>
+      </c>
+      <c r="C147" s="1">
+        <v>346</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E147" s="1"/>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B148" s="1">
+        <v>0</v>
+      </c>
+      <c r="C148" s="1">
+        <v>1</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E148" s="1"/>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B149" s="1">
+        <v>1</v>
+      </c>
+      <c r="C149" s="1">
+        <v>80</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E149" s="1"/>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B150" s="1">
+        <v>1</v>
+      </c>
+      <c r="C150" s="1">
+        <v>45</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E150" s="1"/>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B151" s="1">
+        <v>4</v>
+      </c>
+      <c r="C151" s="1">
+        <v>345</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E151" s="1"/>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B152" s="1">
+        <v>4</v>
+      </c>
+      <c r="C152" s="1">
+        <v>239</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E152" s="1"/>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B153" s="1">
+        <v>0</v>
+      </c>
+      <c r="C153" s="1">
+        <v>80</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E153" s="1"/>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B154" s="1">
+        <v>4</v>
+      </c>
+      <c r="C154" s="1">
+        <v>241</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E154" s="1"/>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B155" s="1">
+        <v>3</v>
+      </c>
+      <c r="C155" s="1">
+        <v>60</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E155" s="1"/>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B156" s="1">
+        <v>4</v>
+      </c>
+      <c r="C156" s="1">
+        <v>262</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E156" s="1"/>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B157" s="1">
+        <v>3</v>
+      </c>
+      <c r="C157" s="1">
+        <v>73</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E157" s="1"/>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B158" s="1">
+        <v>0</v>
+      </c>
+      <c r="C158" s="1">
+        <v>46</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E158" s="1"/>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B159" s="1">
+        <v>0</v>
+      </c>
+      <c r="C159" s="1">
+        <v>21</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E159" s="1"/>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B160" s="1">
+        <v>1</v>
+      </c>
+      <c r="C160" s="1">
+        <v>78</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E160" s="1"/>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B161" s="1">
+        <v>0</v>
+      </c>
+      <c r="C161" s="1">
+        <v>13</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E161" s="1"/>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B162" s="1">
+        <v>4</v>
+      </c>
+      <c r="C162" s="1">
+        <v>212</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E162" s="1"/>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B163" s="1">
+        <v>4</v>
+      </c>
+      <c r="C163" s="1">
+        <v>218</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E163" s="1"/>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B164" s="1">
+        <v>2</v>
+      </c>
+      <c r="C164" s="1">
+        <v>176</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E164" s="1"/>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B165" s="1">
+        <v>1</v>
+      </c>
+      <c r="C165" s="1">
+        <v>28</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E165" s="1"/>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B166" s="1">
+        <v>4</v>
+      </c>
+      <c r="C166" s="1">
+        <v>236</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E166" s="1"/>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B167" s="1">
+        <v>1</v>
+      </c>
+      <c r="C167" s="1">
+        <v>79</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E167" s="1"/>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B168" s="1">
+        <v>2</v>
+      </c>
+      <c r="C168" s="1">
+        <v>160</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E168" s="1"/>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B169" s="1">
+        <v>0</v>
+      </c>
+      <c r="C169" s="1">
+        <v>16</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E169" s="1"/>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B170" s="1">
+        <v>4</v>
+      </c>
+      <c r="C170" s="1">
+        <v>307</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E170" s="1"/>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B171" s="1">
+        <v>4</v>
+      </c>
+      <c r="C171" s="1">
+        <v>234</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E171" s="1"/>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B172" s="1">
+        <v>1</v>
+      </c>
+      <c r="C172" s="1">
+        <v>47</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E172" s="1"/>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B173" s="1">
+        <v>3</v>
+      </c>
+      <c r="C173" s="1">
+        <v>76</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E173" s="1"/>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E174" s="1"/>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B175" s="1">
+        <v>1</v>
+      </c>
+      <c r="C175" s="1">
+        <v>59</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E175" s="1"/>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B176" s="1">
+        <v>4</v>
+      </c>
+      <c r="C176" s="1">
+        <v>304</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E176" s="1"/>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B177" s="1">
+        <v>3</v>
+      </c>
+      <c r="C177" s="1">
+        <v>66</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E177" s="1"/>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B178" s="1">
+        <v>3</v>
+      </c>
+      <c r="C178" s="1">
+        <v>50</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E178" s="1"/>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B179" s="1">
+        <v>0</v>
+      </c>
+      <c r="C179" s="1">
+        <v>57</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E179" s="1"/>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B180" s="1">
+        <v>0</v>
+      </c>
+      <c r="C180" s="1">
+        <v>55</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E180" s="1"/>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B181" s="1">
+        <v>0</v>
+      </c>
+      <c r="C181" s="1">
+        <v>86</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E181" s="1"/>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B182" s="1">
+        <v>2</v>
+      </c>
+      <c r="C182" s="1">
+        <v>189</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E182" s="1"/>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B183" s="1">
+        <v>0</v>
+      </c>
+      <c r="C183" s="1">
+        <v>88</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E183" s="1"/>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B184" s="1">
+        <v>0</v>
+      </c>
+      <c r="C184" s="1">
+        <v>28</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E184" s="1"/>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B185" s="1">
+        <v>5</v>
+      </c>
+      <c r="C185" s="1">
+        <v>387</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E185" s="1"/>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B186" s="1">
+        <v>5</v>
+      </c>
+      <c r="C186" s="1">
+        <v>376</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E186" s="1"/>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B187" s="1">
+        <v>5</v>
+      </c>
+      <c r="C187" s="1">
+        <v>381</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E187" s="1"/>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B188" s="1">
+        <v>5</v>
+      </c>
+      <c r="C188" s="1">
+        <v>367</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E188" s="1"/>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B189" s="1">
+        <v>5</v>
+      </c>
+      <c r="C189" s="1">
+        <v>375</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E189" s="1"/>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B190" s="1">
+        <v>0</v>
+      </c>
+      <c r="C190" s="1">
+        <v>51</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E190" s="1"/>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B191" s="1">
+        <v>5</v>
+      </c>
+      <c r="C191" s="1">
+        <v>386</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E191" s="1"/>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B192" s="1">
+        <v>5</v>
+      </c>
+      <c r="C192" s="1">
+        <v>373</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E192" s="1"/>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B193" s="1">
+        <v>5</v>
+      </c>
+      <c r="C193" s="1">
+        <v>374</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E193" s="1"/>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B194" s="1">
+        <v>5</v>
+      </c>
+      <c r="C194" s="1">
+        <v>383</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E194" s="1"/>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B195" s="1">
+        <v>5</v>
+      </c>
+      <c r="C195" s="1">
+        <v>372</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E195" s="1"/>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B196" s="1">
+        <v>5</v>
+      </c>
+      <c r="C196" s="1">
+        <v>391</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E196" s="1"/>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B197" s="1">
+        <v>1</v>
+      </c>
+      <c r="C197" s="1">
+        <v>61</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E197" s="1"/>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B198" s="1">
+        <v>5</v>
+      </c>
+      <c r="C198" s="1">
+        <v>390</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E198" s="1"/>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B199" s="1">
+        <v>5</v>
+      </c>
+      <c r="C199" s="1">
+        <v>370</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E199" s="1"/>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B200" s="1">
+        <v>5</v>
+      </c>
+      <c r="C200" s="1">
+        <v>380</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E200" s="1"/>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B201" s="1">
+        <v>5</v>
+      </c>
+      <c r="C201" s="1">
+        <v>392</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E201" s="1"/>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B202" s="1">
+        <v>5</v>
+      </c>
+      <c r="C202" s="1">
+        <v>400</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E202" s="1"/>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B203" s="1">
+        <v>5</v>
+      </c>
+      <c r="C203" s="1">
+        <v>369</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E203" s="1"/>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B204" s="1">
+        <v>5</v>
+      </c>
+      <c r="C204" s="1">
+        <v>384</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E204" s="1"/>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B205" s="1">
+        <v>2</v>
+      </c>
+      <c r="C205" s="1">
+        <v>187</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E205" s="1"/>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B206" s="1">
+        <v>5</v>
+      </c>
+      <c r="C206" s="1">
+        <v>398</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E206" s="1"/>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B207" s="1">
+        <v>2</v>
+      </c>
+      <c r="C207" s="1">
+        <v>191</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E207" s="1"/>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B208" s="1">
+        <v>2</v>
+      </c>
+      <c r="C208" s="1">
+        <v>188</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E208" s="1"/>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B209" s="1">
+        <v>0</v>
+      </c>
+      <c r="C209" s="1">
+        <v>82</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E209" s="1"/>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B210" s="1">
+        <v>0</v>
+      </c>
+      <c r="C210" s="1">
+        <v>88</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E210" s="1"/>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B211" s="1">
+        <v>5</v>
+      </c>
+      <c r="C211" s="1">
+        <v>146</v>
+      </c>
+      <c r="D211" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" ht="24.75" spans="1:5">
-      <c r="A3" s="6" t="s">
+      <c r="E211" s="1"/>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B212" s="1">
+        <v>5</v>
+      </c>
+      <c r="C212" s="1">
+        <v>407</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E212" s="1"/>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B213" s="1">
+        <v>4</v>
+      </c>
+      <c r="C213" s="1">
+        <v>341</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E213" s="1"/>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B214" s="1">
         <v>3</v>
       </c>
-      <c r="B3" s="7">
-        <v>45718</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="C214" s="1">
+        <v>148</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E214" s="1"/>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B215" s="1">
+        <v>1</v>
+      </c>
+      <c r="C215" s="1">
+        <v>8</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E215" s="1"/>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B216" s="1">
+        <v>5</v>
+      </c>
+      <c r="C216" s="1">
+        <v>420</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E216" s="1"/>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B217" s="1">
+        <v>2</v>
+      </c>
+      <c r="C217" s="1">
+        <v>195</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E217" s="1"/>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B218" s="1">
+        <v>1</v>
+      </c>
+      <c r="C218" s="1">
+        <v>32</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E218" s="1"/>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B219" s="1">
+        <v>0</v>
+      </c>
+      <c r="C219" s="1">
+        <v>53</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E219" s="1"/>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B220" s="1">
+        <v>1</v>
+      </c>
+      <c r="C220" s="1">
+        <v>26</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E220" s="1"/>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B221" s="1">
+        <v>0</v>
+      </c>
+      <c r="C221" s="1">
+        <v>23</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E221" s="1"/>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B222" s="1">
+        <v>1</v>
+      </c>
+      <c r="C222" s="1">
+        <v>92</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E222" s="1"/>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B223" s="1">
+        <v>1</v>
+      </c>
+      <c r="C223" s="1">
+        <v>85</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E223" s="1"/>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B224" s="1">
+        <v>1</v>
+      </c>
+      <c r="C224" s="1">
+        <v>54</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E224" s="1"/>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B225" s="1">
         <v>3</v>
       </c>
-      <c r="D3" s="3">
+      <c r="C225" s="1">
+        <v>147</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E225" s="1"/>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B226" s="1">
+        <v>0</v>
+      </c>
+      <c r="C226" s="1">
+        <v>14</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E226" s="1"/>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B227" s="1">
+        <v>0</v>
+      </c>
+      <c r="C227" s="1">
+        <v>17</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E227" s="1"/>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B228" s="1">
+        <v>5</v>
+      </c>
+      <c r="C228" s="1">
+        <v>419</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E228" s="1"/>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B229" s="1">
         <v>2</v>
       </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" ht="36.75" spans="1:5">
-      <c r="A4" s="4" t="s">
+      <c r="C229" s="1">
+        <v>193</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E229" s="1"/>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B230" s="1">
+        <v>0</v>
+      </c>
+      <c r="C230" s="1">
+        <v>90</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E230" s="1"/>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B231" s="1">
+        <v>0</v>
+      </c>
+      <c r="C231" s="1">
+        <v>89</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E231" s="1"/>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B232" s="1">
+        <v>5</v>
+      </c>
+      <c r="C232" s="1">
+        <v>437</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E232" s="1"/>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B233" s="1">
+        <v>5</v>
+      </c>
+      <c r="C233" s="1">
+        <v>439</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E233" s="1"/>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B234" s="1">
+        <v>5</v>
+      </c>
+      <c r="C234" s="1">
+        <v>441</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E234" s="1"/>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B235" s="1">
+        <v>0</v>
+      </c>
+      <c r="C235" s="1">
+        <v>31</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E235" s="1"/>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B236" s="1">
+        <v>5</v>
+      </c>
+      <c r="C236" s="1">
+        <v>445</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E236" s="1"/>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B237" s="1">
+        <v>2</v>
+      </c>
+      <c r="C237" s="1">
+        <v>199</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E237" s="1"/>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B238" s="1">
+        <v>2</v>
+      </c>
+      <c r="C238" s="1">
+        <v>204</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E238" s="1"/>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B239" s="1">
+        <v>2</v>
+      </c>
+      <c r="C239" s="1">
+        <v>198</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E239" s="1"/>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B240" s="1">
+        <v>5</v>
+      </c>
+      <c r="C240" s="1">
+        <v>448</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E240" s="1"/>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B241" s="1">
+        <v>1</v>
+      </c>
+      <c r="C241" s="1">
+        <v>95</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E241" s="1"/>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B242" s="1">
+        <v>5</v>
+      </c>
+      <c r="C242" s="1">
+        <v>447</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E242" s="1"/>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B243" s="1">
+        <v>5</v>
+      </c>
+      <c r="C243" s="1">
+        <v>442</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E243" s="1"/>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B244" s="1">
+        <v>5</v>
+      </c>
+      <c r="C244" s="1">
+        <v>451</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E244" s="1"/>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B245" s="1">
+        <v>5</v>
+      </c>
+      <c r="C245" s="1">
+        <v>455</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E245" s="1"/>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B246" s="1">
+        <v>5</v>
+      </c>
+      <c r="C246" s="1">
+        <v>434</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E246" s="1"/>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B247" s="1">
+        <v>5</v>
+      </c>
+      <c r="C247" s="1">
+        <v>438</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E247" s="1"/>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B248" s="1">
+        <v>1</v>
+      </c>
+      <c r="C248" s="1">
+        <v>40</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E248" s="1"/>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B249" s="1">
+        <v>0</v>
+      </c>
+      <c r="C249" s="1">
+        <v>32</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E249" s="1"/>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B250" s="1">
+        <v>5</v>
+      </c>
+      <c r="C250" s="1">
+        <v>472</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E250" s="1"/>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B251" s="1"/>
+      <c r="C251" s="1"/>
+      <c r="D251" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E251" s="1"/>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B252" s="1">
+        <v>5</v>
+      </c>
+      <c r="C252" s="1">
+        <v>473</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E252" s="1"/>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B253" s="1">
+        <v>2</v>
+      </c>
+      <c r="C253" s="1">
+        <v>192</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E253" s="1"/>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B254" s="1">
+        <v>5</v>
+      </c>
+      <c r="C254" s="1">
+        <v>468</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E254" s="1"/>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B255" s="1">
+        <v>5</v>
+      </c>
+      <c r="C255" s="1">
+        <v>464</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E255" s="1"/>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B256" s="1">
+        <v>5</v>
+      </c>
+      <c r="C256" s="1">
+        <v>469</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E256" s="1"/>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B257" s="1">
+        <v>0</v>
+      </c>
+      <c r="C257" s="1">
+        <v>49</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E257" s="1"/>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B258" s="1">
+        <v>5</v>
+      </c>
+      <c r="C258" s="1">
+        <v>492</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E258" s="1"/>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B259" s="1">
+        <v>5</v>
+      </c>
+      <c r="C259" s="1">
+        <v>493</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E259" s="1"/>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B260" s="1">
+        <v>5</v>
+      </c>
+      <c r="C260" s="1">
+        <v>499</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E260" s="1"/>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B261" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="C261" s="1">
+        <v>205</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E261" s="1"/>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B262" s="1">
+        <v>5</v>
+      </c>
+      <c r="C262" s="1">
+        <v>510</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E262" s="1"/>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B263" s="1">
+        <v>5</v>
+      </c>
+      <c r="C263" s="1">
+        <v>506</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E263" s="1"/>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B264" s="1">
         <v>4</v>
       </c>
-      <c r="D4" s="3">
-        <v>205</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" ht="36.75" spans="1:5">
-      <c r="A5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="7">
-        <v>45727</v>
-      </c>
-      <c r="C5" s="3">
-        <v>3</v>
-      </c>
-      <c r="D5" s="3">
-        <v>11</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" ht="36.75" spans="1:5">
-      <c r="A6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="8">
-        <v>45742</v>
-      </c>
-      <c r="C6" s="3">
-        <v>3</v>
-      </c>
-      <c r="D6" s="3">
-        <v>26</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" ht="36.75" spans="1:5">
-      <c r="A7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="10">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3">
-        <v>105</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" ht="24.75" spans="1:5">
-      <c r="A8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="C264" s="1">
+        <v>306</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E264" s="1"/>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B265" s="1">
+        <v>5</v>
+      </c>
+      <c r="C265" s="1">
+        <v>712</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E265" s="1"/>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B266" s="1">
+        <v>1</v>
+      </c>
+      <c r="C266" s="1">
+        <v>84</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E266" s="1"/>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B267" s="1">
+        <v>1</v>
+      </c>
+      <c r="C267" s="1">
+        <v>64</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E267" s="1"/>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B268" s="1">
+        <v>0</v>
+      </c>
+      <c r="C268" s="1">
+        <v>88</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E268" s="1"/>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B269" s="1">
+        <v>1</v>
+      </c>
+      <c r="C269" s="1">
+        <v>84</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E269" s="1"/>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B270" s="1">
+        <v>5</v>
+      </c>
+      <c r="C270" s="1">
+        <v>509</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E270" s="1"/>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B271" s="1">
+        <v>5</v>
+      </c>
+      <c r="C271" s="1">
+        <v>494</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E271" s="1"/>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B272" s="1">
+        <v>5</v>
+      </c>
+      <c r="C272" s="1">
+        <v>495</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E272" s="1"/>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B273" s="1">
         <v>4</v>
       </c>
-      <c r="D8" s="3">
-        <v>173</v>
-      </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" ht="24.75" spans="1:5">
-      <c r="A9" s="6" t="s">
+      <c r="C273" s="1">
+        <v>186</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E273" s="1"/>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B274" s="1">
+        <v>5</v>
+      </c>
+      <c r="C274" s="1">
+        <v>518</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E274" s="1"/>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B275" s="1">
+        <v>5</v>
+      </c>
+      <c r="C275" s="1">
+        <v>498</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E275" s="1"/>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B276" s="1">
+        <v>0</v>
+      </c>
+      <c r="C276" s="1">
+        <v>36</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E276" s="1"/>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B277" s="1">
+        <v>0</v>
+      </c>
+      <c r="C277" s="1">
+        <v>35</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E277" s="1"/>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B278" s="1">
+        <v>0</v>
+      </c>
+      <c r="C278" s="1">
+        <v>37</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E278" s="1"/>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B279" s="1">
+        <v>5</v>
+      </c>
+      <c r="C279" s="1">
+        <v>545</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E279" s="1"/>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B280" s="1">
+        <v>5</v>
+      </c>
+      <c r="C280" s="1">
+        <v>533</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E280" s="1"/>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B281" s="1">
+        <v>5</v>
+      </c>
+      <c r="C281" s="1">
+        <v>552</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E281" s="1"/>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B282" s="1">
+        <v>1</v>
+      </c>
+      <c r="C282" s="1">
         <v>12</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="3">
-        <v>4</v>
-      </c>
-      <c r="D9" s="3">
-        <v>164</v>
-      </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" ht="24.75" spans="1:5">
-      <c r="A10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="3">
-        <v>4</v>
-      </c>
-      <c r="D10" s="3">
-        <v>186</v>
-      </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" ht="36.75" spans="1:5">
-      <c r="A11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="3">
-        <v>4</v>
-      </c>
-      <c r="D11" s="3">
-        <v>165</v>
-      </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" ht="24.75" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="3">
-        <v>4</v>
-      </c>
-      <c r="D12" s="3">
-        <v>352</v>
-      </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" ht="36.75" spans="1:5">
-      <c r="A13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="3">
-        <v>4</v>
-      </c>
-      <c r="D13" s="3">
-        <v>166</v>
-      </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" ht="24.75" spans="1:5">
-      <c r="A14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="3">
+      <c r="D282" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E282" s="1"/>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B283" s="1">
+        <v>5</v>
+      </c>
+      <c r="C283" s="1">
+        <v>532</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E283" s="1"/>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B284" s="1">
+        <v>5</v>
+      </c>
+      <c r="C284" s="1">
+        <v>551</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E284" s="1"/>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B285" s="1">
+        <v>5</v>
+      </c>
+      <c r="C285" s="1">
+        <v>546</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E285" s="1"/>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B286" s="1">
+        <v>1</v>
+      </c>
+      <c r="C286" s="1">
+        <v>66</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E286" s="1"/>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B287" s="1">
+        <v>5</v>
+      </c>
+      <c r="C287" s="1">
+        <v>555</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E287" s="1"/>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B288" s="1">
+        <v>5</v>
+      </c>
+      <c r="C288" s="1">
+        <v>534</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E288" s="1"/>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B289" s="1">
+        <v>5</v>
+      </c>
+      <c r="C289" s="1">
+        <v>535</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E289" s="1"/>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B290" s="1">
+        <v>5</v>
+      </c>
+      <c r="C290" s="1">
+        <v>538</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E290" s="1"/>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B291" s="1">
         <v>0</v>
       </c>
-      <c r="D14" s="3">
-        <v>71</v>
-      </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" ht="36.75" spans="1:5">
-      <c r="A15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="11">
-        <v>12479</v>
-      </c>
-      <c r="C15" s="3">
-        <v>3</v>
-      </c>
-      <c r="D15" s="3">
-        <v>34</v>
-      </c>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" ht="36.75" spans="1:5">
-      <c r="A16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="8">
-        <v>45731</v>
-      </c>
-      <c r="C16" s="3">
-        <v>3</v>
-      </c>
-      <c r="D16" s="3">
-        <v>15</v>
-      </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" ht="36.75" spans="1:5">
-      <c r="A17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="3">
-        <v>4</v>
-      </c>
-      <c r="D17" s="3">
-        <v>202</v>
-      </c>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" ht="24.75" spans="1:5">
-      <c r="A18" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="3">
-        <v>4</v>
-      </c>
-      <c r="D18" s="3">
-        <v>201</v>
-      </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" ht="36.75" spans="1:5">
-      <c r="A19" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="3">
-        <v>4</v>
-      </c>
-      <c r="D19" s="3">
-        <v>174</v>
-      </c>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" ht="36.75" spans="1:5">
-      <c r="A20" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="12">
-        <v>19054</v>
-      </c>
-      <c r="C20" s="3">
-        <v>3</v>
-      </c>
-      <c r="D20" s="3">
-        <v>52</v>
-      </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" ht="24.75" spans="1:5">
-      <c r="A21" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="3">
-        <v>0</v>
-      </c>
-      <c r="D21" s="3">
-        <v>44</v>
-      </c>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" ht="24.75" spans="1:5">
-      <c r="A22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3">
-        <v>4</v>
-      </c>
-      <c r="D22" s="3">
-        <v>172</v>
-      </c>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" ht="17.55" spans="1:5">
-      <c r="A23" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="7">
-        <v>45736</v>
-      </c>
-      <c r="C23" s="3">
-        <v>3</v>
-      </c>
-      <c r="D23" s="3">
-        <v>20</v>
-      </c>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" ht="24.75" spans="1:5">
-      <c r="A24" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="8">
-        <v>45747</v>
-      </c>
-      <c r="C24" s="3">
-        <v>3</v>
-      </c>
-      <c r="D24" s="3">
-        <v>31</v>
-      </c>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" ht="24.75" spans="1:5">
-      <c r="A25" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="3">
-        <v>0</v>
-      </c>
-      <c r="D25" s="3">
-        <v>39</v>
-      </c>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" ht="24.75" spans="1:5">
-      <c r="A26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="3">
-        <v>0</v>
-      </c>
-      <c r="D26" s="3">
-        <v>6</v>
-      </c>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" ht="24.75" spans="1:5">
-      <c r="A27" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="12">
-        <v>28126</v>
-      </c>
-      <c r="C27" s="3">
-        <v>1</v>
-      </c>
-      <c r="D27" s="3">
-        <v>77</v>
-      </c>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" ht="24.75" spans="1:5">
-      <c r="A28" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="3">
-        <v>0</v>
-      </c>
-      <c r="D28" s="3">
-        <v>0</v>
-      </c>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" ht="24.75" spans="1:5">
-      <c r="A29" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="3">
-        <v>2</v>
-      </c>
-      <c r="D29" s="3">
-        <v>147</v>
-      </c>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" ht="36.75" spans="1:5">
-      <c r="A30" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="11">
-        <v>30317</v>
-      </c>
-      <c r="C30" s="3">
-        <v>1</v>
-      </c>
-      <c r="D30" s="3">
-        <v>83</v>
-      </c>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" ht="24.75" spans="1:5">
-      <c r="A31" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="3">
-        <v>0</v>
-      </c>
-      <c r="D31" s="3">
-        <v>56</v>
-      </c>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" ht="24.75" spans="1:5">
-      <c r="A32" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="7">
-        <v>45717</v>
-      </c>
-      <c r="C32" s="3">
-        <v>3</v>
-      </c>
-      <c r="D32" s="3">
-        <v>1</v>
-      </c>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" ht="24.75" spans="1:5">
-      <c r="A33" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="3">
-        <v>0</v>
-      </c>
-      <c r="D33" s="3">
-        <v>42</v>
-      </c>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" ht="24.75" spans="1:5">
-      <c r="A34" s="6" t="s">
+      <c r="C291" s="1">
         <v>50</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="3">
-        <v>2</v>
-      </c>
-      <c r="D34" s="3">
-        <v>155</v>
-      </c>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" ht="36.75" spans="1:5">
-      <c r="A35" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="3">
-        <v>0</v>
-      </c>
-      <c r="D35" s="3">
-        <v>73</v>
-      </c>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" ht="36.75" spans="1:5">
-      <c r="A36" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" s="3">
-        <v>0</v>
-      </c>
-      <c r="D36" s="3">
-        <v>43</v>
-      </c>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" ht="24.75" spans="1:5">
-      <c r="A37" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="12">
-        <v>19360</v>
-      </c>
-      <c r="C37" s="3">
-        <v>1</v>
-      </c>
-      <c r="D37" s="3">
-        <v>53</v>
-      </c>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" ht="36.75" spans="1:5">
-      <c r="A38" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" s="7">
-        <v>45723</v>
-      </c>
-      <c r="C38" s="3">
-        <v>3</v>
-      </c>
-      <c r="D38" s="3">
-        <v>7</v>
-      </c>
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" ht="36.75" spans="1:5">
-      <c r="A39" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C39" s="3">
-        <v>4</v>
-      </c>
-      <c r="D39" s="3">
-        <v>188</v>
-      </c>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" ht="24.75" spans="1:5">
-      <c r="A40" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="3">
-        <v>4</v>
-      </c>
-      <c r="D40" s="3">
-        <v>191</v>
-      </c>
-      <c r="E40" s="3"/>
-    </row>
-    <row r="41" ht="36.75" spans="1:5">
-      <c r="A41" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B41" s="12">
-        <v>14977</v>
-      </c>
-      <c r="C41" s="3">
-        <v>1</v>
-      </c>
-      <c r="D41" s="3">
-        <v>41</v>
-      </c>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" ht="24.75" spans="1:5">
-      <c r="A42" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C42" s="3">
-        <v>4</v>
-      </c>
-      <c r="D42" s="3">
-        <v>313</v>
-      </c>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" ht="24.75" spans="1:5">
-      <c r="A43" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B43" s="12">
-        <v>16497</v>
-      </c>
-      <c r="C43" s="3">
-        <v>3</v>
-      </c>
-      <c r="D43" s="3">
-        <v>45</v>
-      </c>
-      <c r="E43" s="3"/>
+      <c r="D291" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E291" s="1"/>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B292" s="1">
+        <v>5</v>
+      </c>
+      <c r="C292" s="1">
+        <v>542</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E292" s="1"/>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B293" s="1">
+        <v>5</v>
+      </c>
+      <c r="C293" s="1">
+        <v>549</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E293" s="1"/>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B294" s="1">
+        <v>5</v>
+      </c>
+      <c r="C294" s="1">
+        <v>548</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E294" s="1"/>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B295" s="1">
+        <v>5</v>
+      </c>
+      <c r="C295" s="1">
+        <v>542</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E295" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
